--- a/NEW-BE/exports/tickets.xlsx
+++ b/NEW-BE/exports/tickets.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="70">
   <si>
     <t>Ticket ID</t>
   </si>
@@ -34,22 +34,82 @@
     <t>Description</t>
   </si>
   <si>
+    <t>TVS#0014</t>
+  </si>
+  <si>
+    <t>Part mart</t>
+  </si>
+  <si>
+    <t>Resloved</t>
+  </si>
+  <si>
+    <t>Project Admin</t>
+  </si>
+  <si>
+    <t>The date</t>
+  </si>
+  <si>
+    <t>The confirmation</t>
+  </si>
+  <si>
+    <t>TVS#0021</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TVS#0020</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Atlassian
+See what your teammates are up to
+Don't let your work go unnoticed
+Hi Mohammed Ashik,
+You've joined your teammates on Jira – what's next? Take some time to look around and learn how to start delivering your best work as a team.
+Take your pick: List, Board, Calendar, or Timeline. How you visualize your work can help you see which items to prioritize. Whether you need a deadline‑based view, sprints, or status columns, we've got you covered.</t>
+  </si>
+  <si>
     <t>TVS#0019</t>
   </si>
   <si>
-    <t>Part mart</t>
-  </si>
-  <si>
     <t>Assigned</t>
   </si>
   <si>
-    <t>Project Admin</t>
-  </si>
-  <si>
     <t>desr</t>
   </si>
   <si>
-    <t/>
+    <t>TVS#0018</t>
+  </si>
+  <si>
+    <t>faaf</t>
+  </si>
+  <si>
+    <t>aas</t>
+  </si>
+  <si>
+    <t>TVS#0017</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>t78t87</t>
+  </si>
+  <si>
+    <t>TVS#0016</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
   <si>
     <t>TVS#0015</t>
@@ -61,6 +121,15 @@
     <t xml:space="preserve">icons </t>
   </si>
   <si>
+    <t>TVS#0013</t>
+  </si>
+  <si>
+    <t>vs</t>
+  </si>
+  <si>
+    <t>fsb</t>
+  </si>
+  <si>
     <t>TVS#0012</t>
   </si>
   <si>
@@ -136,13 +205,28 @@
     <t>The user reported that the company's internal email system has been experiencing intermittent outages over the past few days. Emails sent from both internal and external sources are delayed or not delivered at all, especially when sending large attachments. The issue seems to occur randomly, with no consistent pattern regarding the time of day or specific users affected. The issue has been escalated as it impacts multiple departments, including the sales team who rely heavily on email communication for client interaction.</t>
   </si>
   <si>
+    <t>TVS#0004</t>
+  </si>
+  <si>
+    <t>Selvam</t>
+  </si>
+  <si>
+    <t>No Problem Description again ticketId</t>
+  </si>
+  <si>
     <t>TVS#0003</t>
   </si>
   <si>
-    <t>Selvam</t>
-  </si>
-  <si>
     <t>No Problem Description</t>
+  </si>
+  <si>
+    <t>TVS#0002</t>
+  </si>
+  <si>
+    <t>The login button does not respond when clicked on mobile view.</t>
+  </si>
+  <si>
+    <t>TVS#0001</t>
   </si>
 </sst>
 </file>
@@ -519,7 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G22"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -576,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -585,15 +669,15 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -608,21 +692,21 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -631,21 +715,21 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -654,21 +738,21 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -677,21 +761,21 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -700,7 +784,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
@@ -714,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -740,62 +824,292 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>43</v>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
